--- a/static/pilot_static_data.xlsx
+++ b/static/pilot_static_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evathana\certh\re-allocate\streamlit-dashboard\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evathana\certh\re-allocate\dashboard-github\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8664D4-5B71-4054-96DF-9A1576249D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1EC514-7F00-4143-9C30-D5FDD5CEEF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{9EDD0614-72CD-48C6-90C9-77593A68DE4E}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8928" xr2:uid="{9EDD0614-72CD-48C6-90C9-77593A68DE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
   <si>
     <t>City</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>In the neighbourhood of Bergum Gunnilse key mobility challenges concern insufficient lighting and a lack of pedestrian and bicycle paths; as a consequence, many prefer to move around by car.</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>1, 2, 9</t>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t>https://fasttrackmobility.eu/fileadmin/_processed_/6/7/csm_mika-baumeister-7rm_qNXbqxs-unsplash_bf8fc657fc.jpg</t>
+  </si>
+  <si>
+    <t>Coming soon</t>
   </si>
 </sst>
 </file>
@@ -803,18 +803,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD0C284-AF6B-412D-8ADF-65B6AD094A4F}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,10 +828,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
         <v>129</v>
-      </c>
-      <c r="F1" t="s">
-        <v>130</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -873,10 +873,10 @@
         <v>16</v>
       </c>
       <c r="T1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -908,16 +908,16 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
       <c r="Q2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R2">
         <v>57.708869999999997</v>
@@ -926,21 +926,21 @@
         <v>11.97456</v>
       </c>
       <c r="T2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -958,16 +958,19 @@
         <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>131</v>
       </c>
       <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
       <c r="Q3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R3">
         <v>57.728870000000001</v>
@@ -976,51 +979,51 @@
         <v>11.99456</v>
       </c>
       <c r="T3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1">
         <v>44930</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>29</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
       <c r="Q4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R4">
         <v>49.39875</v>
@@ -1029,51 +1032,51 @@
         <v>8.6724340000000009</v>
       </c>
       <c r="T4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
       </c>
       <c r="G5" s="1">
         <v>44933</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5">
         <v>32</v>
       </c>
       <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>47</v>
       </c>
-      <c r="N5" t="s">
-        <v>48</v>
-      </c>
       <c r="Q5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R5">
         <v>49.378749999999997</v>
@@ -1082,51 +1085,51 @@
         <v>8.6524339999999995</v>
       </c>
       <c r="T5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
       <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
       </c>
       <c r="G6" s="1">
         <v>44933</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>32</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
       <c r="Q6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R6">
         <v>41.388775052689603</v>
@@ -1135,51 +1138,51 @@
         <v>2.1813842863255601</v>
       </c>
       <c r="T6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
       <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>44933</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>32</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>59</v>
       </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
       <c r="Q7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R7">
         <v>41.3687750526896</v>
@@ -1188,51 +1191,51 @@
         <v>2.1613842863255601</v>
       </c>
       <c r="T7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1">
         <v>44936</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>32</v>
       </c>
       <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" t="s">
         <v>66</v>
       </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>67</v>
       </c>
-      <c r="N8" t="s">
-        <v>68</v>
-      </c>
       <c r="Q8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R8" s="3">
         <v>47.497912999999997</v>
@@ -1241,51 +1244,51 @@
         <v>19.040236</v>
       </c>
       <c r="T8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1">
         <v>44936</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R9" s="3">
         <v>47.487912999999999</v>
@@ -1294,51 +1297,51 @@
         <v>19.060236</v>
       </c>
       <c r="T9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>44930</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>29</v>
       </c>
       <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s">
         <v>76</v>
       </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>77</v>
       </c>
-      <c r="N10" t="s">
-        <v>78</v>
-      </c>
       <c r="Q10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R10">
         <v>45.764627614259098</v>
@@ -1347,51 +1350,51 @@
         <v>4.8323802296884502</v>
       </c>
       <c r="T10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
       <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
       </c>
       <c r="G11" s="1">
         <v>44933</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>32</v>
       </c>
       <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
         <v>82</v>
       </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>83</v>
       </c>
-      <c r="N11" t="s">
-        <v>84</v>
-      </c>
       <c r="Q11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R11">
         <v>45.7546276142591</v>
@@ -1400,24 +1403,24 @@
         <v>4.8123802296884497</v>
       </c>
       <c r="T11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>87</v>
       </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1432,19 +1435,19 @@
         <v>35</v>
       </c>
       <c r="J12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" t="s">
         <v>90</v>
       </c>
-      <c r="N12" t="s">
-        <v>91</v>
-      </c>
       <c r="Q12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R12">
         <v>44.498955000000002</v>
@@ -1453,24 +1456,24 @@
         <v>11.327591</v>
       </c>
       <c r="T12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1485,19 +1488,19 @@
         <v>35</v>
       </c>
       <c r="J13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
         <v>95</v>
       </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>96</v>
       </c>
-      <c r="N13" t="s">
-        <v>97</v>
-      </c>
       <c r="Q13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R13">
         <v>52.091900000000003</v>
@@ -1506,51 +1509,51 @@
         <v>5.1230000000000002</v>
       </c>
       <c r="T13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>100</v>
       </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
       <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="1">
         <v>44933</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>32</v>
       </c>
       <c r="J14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
         <v>102</v>
       </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>103</v>
       </c>
-      <c r="N14" t="s">
-        <v>104</v>
-      </c>
       <c r="Q14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R14">
         <v>61.500754630207602</v>
@@ -1559,51 +1562,51 @@
         <v>23.747861654806702</v>
       </c>
       <c r="T14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>107</v>
       </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
       <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
       </c>
       <c r="G15" s="1">
         <v>44933</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15">
         <v>32</v>
       </c>
       <c r="J15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
         <v>109</v>
       </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>110</v>
       </c>
-      <c r="N15" t="s">
-        <v>111</v>
-      </c>
       <c r="Q15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R15" s="4">
         <v>52.229700000000001</v>
@@ -1612,24 +1615,24 @@
         <v>21.0122</v>
       </c>
       <c r="T15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
         <v>112</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>113</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>114</v>
       </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1644,19 +1647,19 @@
         <v>35</v>
       </c>
       <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" t="s">
         <v>116</v>
       </c>
-      <c r="K16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" t="s">
-        <v>117</v>
-      </c>
       <c r="Q16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R16">
         <v>45.814999999999998</v>
@@ -1665,7 +1668,7 @@
         <v>15.9819</v>
       </c>
       <c r="T16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
